--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE788A6-6744-7249-9CC1-9F6CC81C04E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93A0B28-F4F7-114B-A0FD-1B4FA6EFBDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>group</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>/content/02-content</t>
+  </si>
+  <si>
+    <t>/content/03-content</t>
   </si>
 </sst>
 </file>
@@ -677,6 +680,9 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93A0B28-F4F7-114B-A0FD-1B4FA6EFBDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09705F6-C772-1444-B357-D4009F441E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>group</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>/content/03-content</t>
+  </si>
+  <si>
+    <t>/assignment/03-problem-set</t>
+  </si>
+  <si>
+    <t>/example/03-example</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,12 +682,20 @@
       <c r="D4" s="2">
         <v>44953</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>44957</v>
+      </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09705F6-C772-1444-B357-D4009F441E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E83AD2-6A2E-4046-9F27-7CA8976ABE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>group</t>
   </si>
@@ -204,6 +203,12 @@
   </si>
   <si>
     <t>/example/03-example</t>
+  </si>
+  <si>
+    <t>/example/04-example</t>
+  </si>
+  <si>
+    <t>/content/04-content</t>
   </si>
 </sst>
 </file>
@@ -563,7 +568,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,9 +716,17 @@
       <c r="D5" s="2">
         <v>44960</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>44964</v>
+      </c>
       <c r="F5" t="s">
         <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E83AD2-6A2E-4046-9F27-7CA8976ABE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D38CAA8-DCC5-D247-BCEB-0650BAD055FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>group</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>/content/04-content</t>
+  </si>
+  <si>
+    <t>/content/05-content</t>
+  </si>
+  <si>
+    <t>/example/05-example</t>
+  </si>
+  <si>
+    <t>/assignment/midterm</t>
+  </si>
+  <si>
+    <t>/content/06-content</t>
   </si>
 </sst>
 </file>
@@ -218,10 +230,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,10 +266,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +588,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,9 +762,17 @@
       <c r="D6" s="2">
         <v>44967</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>44967</v>
+      </c>
       <c r="F6" t="s">
         <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -760,9 +788,14 @@
       <c r="D7" s="2">
         <v>44974</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>44974</v>
+      </c>
       <c r="F7" t="s">
         <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -773,14 +806,17 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>44972</v>
+        <v>44974</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>44972</v>
+        <v>44974</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D38CAA8-DCC5-D247-BCEB-0650BAD055FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A911333-352F-2E4D-908D-E36C32E6A2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>group</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>/content/06-content</t>
+  </si>
+  <si>
+    <t>/example/06-example</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,6 +800,9 @@
       <c r="H7" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A911333-352F-2E4D-908D-E36C32E6A2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A6605F-05D1-6043-9D79-0D6398841F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>group</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Expanding your Vocabulary</t>
   </si>
   <si>
-    <t>Messy and Missing Data</t>
-  </si>
-  <si>
     <t>Trends and Time Series</t>
   </si>
   <si>
@@ -224,6 +221,15 @@
   </si>
   <si>
     <t>/example/06-example</t>
+  </si>
+  <si>
+    <t>Messy and Missing data</t>
+  </si>
+  <si>
+    <t>/content/07-content</t>
+  </si>
+  <si>
+    <t>/example/07-example</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -641,10 +647,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <v>44939</v>
@@ -656,24 +662,24 @@
         <v>44943</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>44944</v>
@@ -685,24 +691,24 @@
         <v>44950</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>44951</v>
@@ -717,21 +723,21 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
         <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>44958</v>
@@ -743,21 +749,21 @@
         <v>44964</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>44965</v>
@@ -772,18 +778,18 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
         <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>44972</v>
@@ -798,15 +804,15 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
         <v>61</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -822,15 +828,15 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>44979</v>
@@ -840,15 +846,21 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>44986</v>
@@ -858,15 +870,15 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>44993</v>
@@ -876,15 +888,15 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>45000</v>
@@ -899,10 +911,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>45007</v>
@@ -912,15 +924,15 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
         <v>45014</v>
@@ -930,15 +942,15 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2">
         <v>45021</v>
@@ -948,15 +960,15 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>45028</v>
@@ -966,15 +978,15 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>45035</v>
@@ -984,15 +996,15 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
         <v>45042</v>
@@ -1000,7 +1012,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A6605F-05D1-6043-9D79-0D6398841F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE4EB4-2836-C34D-8FC4-4EDAE9ECDBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>group</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>/example/07-example</t>
+  </si>
+  <si>
+    <t>/assignment/07-problem-set</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,6 +857,9 @@
       <c r="I9" t="s">
         <v>64</v>
       </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE4EB4-2836-C34D-8FC4-4EDAE9ECDBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA18F8D-34D7-7F4D-93D5-0840F92A3063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>group</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>/assignment/07-problem-set</t>
+  </si>
+  <si>
+    <t>/content/08-content</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,6 +881,9 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA18F8D-34D7-7F4D-93D5-0840F92A3063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABFA8ED-A75D-4C45-972C-168EDB0C2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>group</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>/content/08-content</t>
+  </si>
+  <si>
+    <t>/example/08-example</t>
+  </si>
+  <si>
+    <t>/assignment/08-problem-set</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,7 +856,9 @@
       <c r="D9" s="2">
         <v>44981</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>44981</v>
+      </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
@@ -877,12 +885,20 @@
       <c r="D10" s="2">
         <v>44988</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>44988</v>
+      </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10305"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABFA8ED-A75D-4C45-972C-168EDB0C2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439C0AFD-87A1-2346-9D8D-189358FA2E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>group</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>/assignment/08-problem-set</t>
+  </si>
+  <si>
+    <t>/content/09-content</t>
+  </si>
+  <si>
+    <t>/example/09-example</t>
   </si>
 </sst>
 </file>
@@ -609,7 +615,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,9 +920,17 @@
       <c r="D11" s="2">
         <v>44995</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>44995</v>
+      </c>
       <c r="F11" t="s">
         <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10305"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439C0AFD-87A1-2346-9D8D-189358FA2E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C622B1-7941-EB4C-80B3-FD90EEB55A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>group</t>
   </si>
@@ -97,12 +97,6 @@
     <t>Counting People</t>
   </si>
   <si>
-    <t>Visualizing Social Networks</t>
-  </si>
-  <si>
-    <t>Animation</t>
-  </si>
-  <si>
     <t>Polishing Plots I</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
     <t>/example/06-example</t>
   </si>
   <si>
-    <t>Messy and Missing data</t>
-  </si>
-  <si>
     <t>/content/07-content</t>
   </si>
   <si>
@@ -248,6 +239,21 @@
   </si>
   <si>
     <t>/example/09-example</t>
+  </si>
+  <si>
+    <t>/content/10-content</t>
+  </si>
+  <si>
+    <t>Text as Data</t>
+  </si>
+  <si>
+    <t>/content/11-content</t>
+  </si>
+  <si>
+    <t>Social Networks</t>
+  </si>
+  <si>
+    <t>Iteration and Missing data</t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -665,10 +671,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>44939</v>
@@ -680,24 +686,24 @@
         <v>44943</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
         <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>44944</v>
@@ -709,24 +715,24 @@
         <v>44950</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>44951</v>
@@ -741,21 +747,21 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>44958</v>
@@ -767,21 +773,21 @@
         <v>44964</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>44965</v>
@@ -796,18 +802,18 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>44972</v>
@@ -822,15 +828,15 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -846,15 +852,15 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>44979</v>
@@ -869,21 +875,21 @@
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>44986</v>
@@ -898,21 +904,21 @@
         <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>44993</v>
@@ -927,18 +933,18 @@
         <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>45000</v>
@@ -953,10 +959,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>45007</v>
@@ -964,17 +970,22 @@
       <c r="D13" s="2">
         <v>45009</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>45009</v>
+      </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
         <v>45014</v>
@@ -982,17 +993,22 @@
       <c r="D14" s="2">
         <v>45016</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>45016</v>
+      </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
         <v>45021</v>
@@ -1002,15 +1018,15 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>45028</v>
@@ -1020,15 +1036,15 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>45035</v>
@@ -1038,15 +1054,15 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
         <v>45042</v>

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C622B1-7941-EB4C-80B3-FD90EEB55A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD905B0-AD56-854D-B9DE-24B973445E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>group</t>
   </si>
@@ -91,18 +91,9 @@
     <t>Maps and Spatial Data</t>
   </si>
   <si>
-    <t>Social Theory and Social Data</t>
-  </si>
-  <si>
     <t>Counting People</t>
   </si>
   <si>
-    <t>Polishing Plots I</t>
-  </si>
-  <si>
-    <t>Polishing Plots II</t>
-  </si>
-  <si>
     <t>Break</t>
   </si>
   <si>
@@ -254,6 +245,21 @@
   </si>
   <si>
     <t>Iteration and Missing data</t>
+  </si>
+  <si>
+    <t>/content/12-content</t>
+  </si>
+  <si>
+    <t>example/12-example</t>
+  </si>
+  <si>
+    <t>Project prep</t>
+  </si>
+  <si>
+    <t>No class</t>
+  </si>
+  <si>
+    <t>/assignment/12-problem-set</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -671,10 +677,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>44939</v>
@@ -686,24 +692,24 @@
         <v>44943</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>44944</v>
@@ -715,24 +721,24 @@
         <v>44950</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>44951</v>
@@ -747,21 +753,21 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>44958</v>
@@ -773,21 +779,21 @@
         <v>44964</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>44965</v>
@@ -802,18 +808,18 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
         <v>44972</v>
@@ -828,15 +834,15 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -852,15 +858,15 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>44979</v>
@@ -872,24 +878,24 @@
         <v>44981</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>44986</v>
@@ -904,21 +910,21 @@
         <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>44993</v>
@@ -933,18 +939,18 @@
         <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>45000</v>
@@ -959,10 +965,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>45007</v>
@@ -974,18 +980,18 @@
         <v>45009</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>45014</v>
@@ -997,18 +1003,18 @@
         <v>45016</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>45021</v>
@@ -1018,15 +1024,24 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
         <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2">
         <v>45028</v>
@@ -1036,15 +1051,15 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
         <v>45035</v>
@@ -1054,15 +1069,15 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>45042</v>
@@ -1070,7 +1085,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD905B0-AD56-854D-B9DE-24B973445E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA224A-442A-E443-B7D6-CCCAB65ECF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>group</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Week 14</t>
   </si>
   <si>
-    <t>Week 15</t>
-  </si>
-  <si>
     <t>day2</t>
   </si>
   <si>
@@ -250,16 +247,22 @@
     <t>/content/12-content</t>
   </si>
   <si>
-    <t>example/12-example</t>
-  </si>
-  <si>
     <t>Project prep</t>
   </si>
   <si>
-    <t>No class</t>
-  </si>
-  <si>
     <t>/assignment/12-problem-set</t>
+  </si>
+  <si>
+    <t>/assignment/final-project</t>
+  </si>
+  <si>
+    <t>/example/12-example</t>
+  </si>
+  <si>
+    <t>/example/final-project-example</t>
+  </si>
+  <si>
+    <t>/content/final-project</t>
   </si>
 </sst>
 </file>
@@ -624,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE4373-BD3B-FD48-B504-CA3F219CBEF5}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -695,13 +698,13 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -721,16 +724,16 @@
         <v>44950</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -753,13 +756,13 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -779,13 +782,13 @@
         <v>44964</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -808,10 +811,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
         <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -834,10 +837,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
         <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -858,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -881,13 +884,13 @@
         <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
         <v>57</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>58</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -910,13 +913,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
         <v>60</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>61</v>
-      </c>
-      <c r="J10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -939,10 +942,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
         <v>63</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -980,10 +983,10 @@
         <v>45009</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1003,10 +1006,10 @@
         <v>45016</v>
       </c>
       <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1024,16 +1027,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
         <v>71</v>
-      </c>
-      <c r="J15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1051,10 +1054,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1069,46 +1072,39 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>45042</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>45042</v>
+      </c>
       <c r="F18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45042</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>45042</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
+      <c r="H18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C19">
-    <sortCondition ref="C2:C19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C18">
+    <sortCondition ref="C2:C18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA224A-442A-E443-B7D6-CCCAB65ECF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E024954-31F4-B141-91F7-BD395EC1CA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>group</t>
   </si>
@@ -73,9 +74,6 @@
     <t>Final Project</t>
   </si>
   <si>
-    <t>Midterm Project</t>
-  </si>
-  <si>
     <t>Ways of Seeing</t>
   </si>
   <si>
@@ -94,9 +92,6 @@
     <t>Counting People</t>
   </si>
   <si>
-    <t>Break</t>
-  </si>
-  <si>
     <t>I: Core Tools</t>
   </si>
   <si>
@@ -166,103 +161,25 @@
     <t>/assignment/01-problem-set</t>
   </si>
   <si>
-    <t>/assignment/02-problem-set</t>
-  </si>
-  <si>
-    <t>/example/02-example</t>
-  </si>
-  <si>
-    <t>/content/02-content</t>
-  </si>
-  <si>
-    <t>/content/03-content</t>
-  </si>
-  <si>
-    <t>/assignment/03-problem-set</t>
-  </si>
-  <si>
-    <t>/example/03-example</t>
-  </si>
-  <si>
-    <t>/example/04-example</t>
-  </si>
-  <si>
-    <t>/content/04-content</t>
-  </si>
-  <si>
-    <t>/content/05-content</t>
-  </si>
-  <si>
-    <t>/example/05-example</t>
-  </si>
-  <si>
-    <t>/assignment/midterm</t>
-  </si>
-  <si>
-    <t>/content/06-content</t>
-  </si>
-  <si>
-    <t>/example/06-example</t>
-  </si>
-  <si>
-    <t>/content/07-content</t>
-  </si>
-  <si>
-    <t>/example/07-example</t>
-  </si>
-  <si>
-    <t>/assignment/07-problem-set</t>
-  </si>
-  <si>
-    <t>/content/08-content</t>
-  </si>
-  <si>
-    <t>/example/08-example</t>
-  </si>
-  <si>
-    <t>/assignment/08-problem-set</t>
-  </si>
-  <si>
-    <t>/content/09-content</t>
-  </si>
-  <si>
-    <t>/example/09-example</t>
-  </si>
-  <si>
-    <t>/content/10-content</t>
-  </si>
-  <si>
     <t>Text as Data</t>
   </si>
   <si>
-    <t>/content/11-content</t>
-  </si>
-  <si>
     <t>Social Networks</t>
   </si>
   <si>
     <t>Iteration and Missing data</t>
   </si>
   <si>
-    <t>/content/12-content</t>
-  </si>
-  <si>
     <t>Project prep</t>
   </si>
   <si>
-    <t>/assignment/12-problem-set</t>
-  </si>
-  <si>
-    <t>/assignment/final-project</t>
-  </si>
-  <si>
-    <t>/example/12-example</t>
-  </si>
-  <si>
-    <t>/example/final-project-example</t>
-  </si>
-  <si>
-    <t>/content/final-project</t>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Catch-up</t>
+  </si>
+  <si>
+    <t>Midterm Assignment</t>
   </si>
 </sst>
 </file>
@@ -272,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,6 +200,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,11 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,9 +255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,7 +295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -477,7 +401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -630,7 +554,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -680,432 +604,340 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4">
+        <v>44938</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44939</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44943</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44944</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44943</v>
       </c>
       <c r="D3" s="2">
-        <v>44946</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44950</v>
-      </c>
+        <f t="shared" ref="D3:D17" si="0">C3+2</f>
+        <v>44945</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44951</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44950</v>
       </c>
       <c r="D4" s="2">
-        <v>44953</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44957</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>44952</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44958</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44957</v>
       </c>
       <c r="D5" s="2">
-        <v>44960</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44964</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>44959</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44965</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44964</v>
       </c>
       <c r="D6" s="2">
-        <v>44967</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44967</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>44966</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44972</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44971</v>
       </c>
       <c r="D7" s="2">
-        <v>44974</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44974</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>44973</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>55</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44974</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>44974</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44978</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>44980</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44979</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44981</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44981</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4">
+        <v>44975</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44986</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44985</v>
       </c>
       <c r="D10" s="2">
-        <v>44988</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44988</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>44987</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44991</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
         <v>44993</v>
       </c>
-      <c r="D11" s="2">
-        <v>44995</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44995</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44998</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
         <v>45000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45002</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45005</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
         <v>45007</v>
       </c>
-      <c r="D13" s="2">
-        <v>45009</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45009</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45012</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
         <v>45014</v>
       </c>
-      <c r="D14" s="2">
-        <v>45016</v>
-      </c>
-      <c r="E14" s="2">
-        <v>45016</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45019</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
         <v>45021</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45023</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s">
-        <v>71</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45026</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
         <v>45028</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45030</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45033</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
         <v>45035</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45037</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
-        <v>45042</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>45042</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" t="s">
-        <v>72</v>
-      </c>
+      <c r="H18" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C18">
     <sortCondition ref="C2:C18"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E024954-31F4-B141-91F7-BD395EC1CA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C26320-AFAE-D644-8957-D4D62D337728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>Social Networks</t>
   </si>
   <si>
-    <t>Iteration and Missing data</t>
-  </si>
-  <si>
     <t>Project prep</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Midterm Assignment</t>
+  </si>
+  <si>
+    <t>Iteration and Missing Data</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,37 +725,37 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44978</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>44980</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4">
+        <v>44975</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4">
-        <v>44975</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44978</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9+2</f>
+        <v>44980</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -902,7 +902,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4">
         <v>45033</v>
@@ -913,7 +913,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C26320-AFAE-D644-8957-D4D62D337728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC208D5-71A3-C84D-B0D9-B20E99E229DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>group</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Iteration and Missing Data</t>
+  </si>
+  <si>
+    <t>/content/02-content</t>
+  </si>
+  <si>
+    <t>/example/02-example</t>
+  </si>
+  <si>
+    <t>/assignment/02-problem-set</t>
   </si>
 </sst>
 </file>
@@ -554,7 +563,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,6 +654,15 @@
       <c r="F3" t="s">
         <v>37</v>
       </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC208D5-71A3-C84D-B0D9-B20E99E229DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E2EBF-DA5A-C64C-AC46-0BF418A61F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>group</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>/assignment/02-problem-set</t>
+  </si>
+  <si>
+    <t>/content/03-content</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,6 +685,9 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E2EBF-DA5A-C64C-AC46-0BF418A61F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E815E4EE-AB89-F44F-89F1-4D0C2F582DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>group</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>/content/03-content</t>
+  </si>
+  <si>
+    <t>/example/03-example</t>
+  </si>
+  <si>
+    <t>/assignment/03-problem-set</t>
   </si>
 </sst>
 </file>
@@ -566,7 +572,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,6 +694,12 @@
       <c r="H4" t="s">
         <v>51</v>
       </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E815E4EE-AB89-F44F-89F1-4D0C2F582DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841E5F2F-B0CA-D64F-85AE-929A79560B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>group</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>/assignment/03-problem-set</t>
+  </si>
+  <si>
+    <t>/content/04-content</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,6 +722,9 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841E5F2F-B0CA-D64F-85AE-929A79560B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02476A-D4CF-D844-8E61-7A3B0FF0F39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>group</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>/content/04-content</t>
+  </si>
+  <si>
+    <t>/assignment/04-problem-set</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,6 +728,9 @@
       <c r="H5" t="s">
         <v>54</v>
       </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02476A-D4CF-D844-8E61-7A3B0FF0F39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2CF83-E48D-F740-8EAB-8C4078DD92F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>group</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>/assignment/04-problem-set</t>
+  </si>
+  <si>
+    <t>/content/05-content</t>
+  </si>
+  <si>
+    <t>/example/04-example</t>
+  </si>
+  <si>
+    <t>/example/05-example</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,6 +737,9 @@
       <c r="H5" t="s">
         <v>54</v>
       </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" t="s">
         <v>55</v>
       </c>
@@ -749,6 +761,12 @@
       <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10204"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2CF83-E48D-F740-8EAB-8C4078DD92F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34940E1D-17E0-0A4F-9BE2-4A335D68A92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>group</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>/example/05-example</t>
+  </si>
+  <si>
+    <t>/assignment/05-problem-set</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,6 +771,9 @@
       <c r="I6" t="s">
         <v>58</v>
       </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34940E1D-17E0-0A4F-9BE2-4A335D68A92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23E96C3-0582-A648-89BA-CB428483CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>group</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>/assignment/05-problem-set</t>
+  </si>
+  <si>
+    <t>/content/06-content</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,7 +796,9 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23E96C3-0582-A648-89BA-CB428483CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B039CE5-0188-CE47-80B7-6CCC50A48709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,7 +810,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4">
-        <v>44975</v>
+        <v>44978</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>46</v>

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B039CE5-0188-CE47-80B7-6CCC50A48709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23485CB6-3D46-D541-8C10-CA479054E3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>group</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>/content/06-content</t>
+  </si>
+  <si>
+    <t>/assignment/06-problem-set</t>
+  </si>
+  <si>
+    <t>/assignment/midterm</t>
   </si>
 </sst>
 </file>
@@ -593,7 +599,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,6 +805,9 @@
       <c r="H7" t="s">
         <v>60</v>
       </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -814,6 +823,9 @@
       </c>
       <c r="F8" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23485CB6-3D46-D541-8C10-CA479054E3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C56431B-CE94-424B-B76D-1879C7DCC391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>group</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>/assignment/midterm</t>
+  </si>
+  <si>
+    <t>/content/07-content</t>
+  </si>
+  <si>
+    <t>/assignment/07-problem-set</t>
   </si>
 </sst>
 </file>
@@ -599,7 +605,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,6 +852,12 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C56431B-CE94-424B-B76D-1879C7DCC391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862566AB-9538-F04B-8ABB-8E8C94DF188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>group</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>/assignment/07-problem-set</t>
+  </si>
+  <si>
+    <t>/content/08-content</t>
+  </si>
+  <si>
+    <t>/example/08-example</t>
+  </si>
+  <si>
+    <t>/assignment/08-problem-set</t>
   </si>
 </sst>
 </file>
@@ -605,7 +614,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +886,15 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -895,7 +912,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -915,7 +932,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3"/>
     </row>

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862566AB-9538-F04B-8ABB-8E8C94DF188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E45579-EF6E-AD4A-AAD3-B07C535F2915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>group</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Midterm Assignment</t>
   </si>
   <si>
-    <t>Iteration and Missing Data</t>
-  </si>
-  <si>
     <t>/content/02-content</t>
   </si>
   <si>
@@ -240,6 +237,21 @@
   </si>
   <si>
     <t>/assignment/08-problem-set</t>
+  </si>
+  <si>
+    <t>/content/09-content</t>
+  </si>
+  <si>
+    <t>Maps and Spatial Data II</t>
+  </si>
+  <si>
+    <t>/content/10-content</t>
+  </si>
+  <si>
+    <t>/example/09-example</t>
+  </si>
+  <si>
+    <t>/assignment/10-problem-set</t>
   </si>
 </sst>
 </file>
@@ -614,7 +626,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,13 +718,13 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -734,13 +746,13 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>52</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -762,13 +774,13 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
         <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -790,13 +802,13 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -818,10 +830,10 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
         <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -840,7 +852,7 @@
         <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -862,10 +874,10 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
         <v>63</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -887,13 +899,13 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
         <v>65</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>66</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -914,7 +926,12 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -952,7 +969,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E45579-EF6E-AD4A-AAD3-B07C535F2915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81B53A2-364A-2245-B9FB-2DB72AE17B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>group</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>/assignment/10-problem-set</t>
+  </si>
+  <si>
+    <t>/content/11-content</t>
+  </si>
+  <si>
+    <t>/content/12-content</t>
+  </si>
+  <si>
+    <t>/example/12-example</t>
   </si>
 </sst>
 </file>
@@ -626,7 +635,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,7 +1005,9 @@
       <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1016,7 +1027,12 @@
       <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81B53A2-364A-2245-B9FB-2DB72AE17B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B081C9-0007-6742-8028-0B0AD2C2DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>group</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>/example/12-example</t>
+  </si>
+  <si>
+    <t>/assignment/12-problem-set</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,6 +1036,9 @@
       <c r="I15" t="s">
         <v>74</v>
       </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">

--- a/data/schedule-condensed.xlsx
+++ b/data/schedule-condensed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/vsd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B081C9-0007-6742-8028-0B0AD2C2DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D8BABE-E927-554F-8025-2F6C62A12C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>group</t>
   </si>
@@ -167,15 +167,9 @@
     <t>Social Networks</t>
   </si>
   <si>
-    <t>Project prep</t>
-  </si>
-  <si>
     <t>Week 15</t>
   </si>
   <si>
-    <t>Catch-up</t>
-  </si>
-  <si>
     <t>Midterm Assignment</t>
   </si>
   <si>
@@ -264,6 +258,27 @@
   </si>
   <si>
     <t>/assignment/12-problem-set</t>
+  </si>
+  <si>
+    <t>Polishing and Presenting</t>
+  </si>
+  <si>
+    <t>/content/13-content</t>
+  </si>
+  <si>
+    <t>/example/13-example</t>
+  </si>
+  <si>
+    <t>/assignment/final-project</t>
+  </si>
+  <si>
+    <t>/example/final-project-example</t>
+  </si>
+  <si>
+    <t>Extras: Animation</t>
+  </si>
+  <si>
+    <t>/content/14-content</t>
   </si>
 </sst>
 </file>
@@ -638,7 +653,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,13 +745,13 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
         <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -758,13 +773,13 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
         <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -786,13 +801,13 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -814,13 +829,13 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
         <v>55</v>
       </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -842,18 +857,18 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2"/>
@@ -861,10 +876,10 @@
         <v>44978</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -886,10 +901,10 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -911,13 +926,13 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
         <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -939,10 +954,10 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -981,13 +996,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
         <v>69</v>
-      </c>
-      <c r="J13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1009,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1031,13 +1046,13 @@
         <v>42</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s">
         <v>73</v>
-      </c>
-      <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1056,16 +1071,21 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4">
         <v>45033</v>
@@ -1076,10 +1096,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1095,6 +1118,12 @@
         <v>11</v>
       </c>
       <c r="H18" s="3"/>
+      <c r="I18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C18">
